--- a/Documentation/Planification_TPI.xlsx
+++ b/Documentation/Planification_TPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\TipAlgoTri\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C169B343-CB28-4D93-9A3A-0D07E3F28191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD65730-A30E-412E-9143-8ACCAE20E111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Votre feuille" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
   <si>
     <t>Temps nécessaire</t>
   </si>
@@ -174,25 +174,97 @@
     <t>Immersion (Création git, vérifications du poste, temps pour adapt.)</t>
   </si>
   <si>
-    <t>Faire l'algo de trie par insertion</t>
-  </si>
-  <si>
-    <t>Faire l'algo de trie à bulle</t>
-  </si>
-  <si>
-    <t>Faire l'algo de trie par selection</t>
-  </si>
-  <si>
-    <t>Faire l'algo de trie à peigne</t>
-  </si>
-  <si>
-    <t>Faire l'algo de trie Shell</t>
-  </si>
-  <si>
-    <t>Faire le form principal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 jour </t>
+    <t>Faire le visuel du trie par insertion</t>
+  </si>
+  <si>
+    <t>Faire le visuel du trie à bulle</t>
+  </si>
+  <si>
+    <t>Faire le visuel du trieselection</t>
+  </si>
+  <si>
+    <t>Faire le visuel du trie à peigne</t>
+  </si>
+  <si>
+    <t>Faire le visuel du trie Shell</t>
+  </si>
+  <si>
+    <t>Faire le visuel du form principal</t>
+  </si>
+  <si>
+    <t>Reglage de la vitesse d'éxécution du trie a bulle</t>
+  </si>
+  <si>
+    <t>Reglage de la vitesse d'éxécution du trie a peigne</t>
+  </si>
+  <si>
+    <t>Reglage de la vitesse d'éxécution du trie a séléction</t>
+  </si>
+  <si>
+    <t>Reglage de la vitesse d'éxécution du trie a insertion</t>
+  </si>
+  <si>
+    <t>Reglage de la vitesse d'éxécution du trie a shell</t>
+  </si>
+  <si>
+    <t>Représenter de manière graphique /couleur différente. Bulle</t>
+  </si>
+  <si>
+    <t>Représenter de manière graphique /couleur différente. Peigne</t>
+  </si>
+  <si>
+    <t>Représenter de manière graphique /couleur différente. Insertion</t>
+  </si>
+  <si>
+    <t>Représenter de manière graphique /couleur différente. Selection</t>
+  </si>
+  <si>
+    <t>Représenter de manière graphique /couleur différente. Shell</t>
+  </si>
+  <si>
+    <t>La hauteur représente son poids pour le tri à bulle</t>
+  </si>
+  <si>
+    <t>La hauteur représente son poids pour le tri à shell</t>
+  </si>
+  <si>
+    <t>La hauteur représente son poids pour le tri à peigne</t>
+  </si>
+  <si>
+    <t>La hauteur représente son poids pour le tri à selection</t>
+  </si>
+  <si>
+    <t>La hauteur représente son poids pour le tri à insertion</t>
+  </si>
+  <si>
+    <t>On peu mettre stop durant le tri à bulle</t>
+  </si>
+  <si>
+    <t>On peu mettre stop durant le tri à shell</t>
+  </si>
+  <si>
+    <t>On peu mettre stop durant le tri à peigne</t>
+  </si>
+  <si>
+    <t>On peu mettre stop durant le tri à selection</t>
+  </si>
+  <si>
+    <t>On peu mettre stop durant le tri à insertion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ligne de code C# associée ou pseudo-code selon le choix en direct pour le tri à bulle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ligne de code C# associée ou pseudo-code selon le choix en direct pour le tri à peigne.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ligne de code C# associée ou pseudo-code selon le choix en direct pour le tri à shell.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ligne de code C# associée ou pseudo-code selon le choix en direct pour le tri à insertion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ligne de code C# associée ou pseudo-code selon le choix en direct pour le tri à selection.</t>
   </si>
 </sst>
 </file>
@@ -202,7 +274,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +303,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -246,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -371,11 +449,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -432,11 +525,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="27">
     <dxf>
       <fill>
         <patternFill>
@@ -513,6 +609,72 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
@@ -522,7 +684,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -907,15 +1076,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="12" width="11.5703125" customWidth="1"/>
   </cols>
@@ -974,10 +1143,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="2">
-        <f>SUM(C2:L2)</f>
-        <v>0</v>
-      </c>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
@@ -994,20 +1160,19 @@
       <c r="J3" s="2"/>
       <c r="K3" s="3"/>
       <c r="L3" s="11"/>
-      <c r="M3" s="2">
-        <f>SUM(C3:L3)</f>
-        <v>0</v>
-      </c>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="29">
-        <v>6.25E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
@@ -1018,7 +1183,7 @@
       <c r="L4" s="11"/>
       <c r="M4" s="2">
         <f t="shared" ref="M4:M28" si="0">SUM(C4:L4)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1026,10 +1191,12 @@
         <v>47</v>
       </c>
       <c r="B5" s="29">
-        <v>6.25E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
@@ -1040,7 +1207,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1048,10 +1215,12 @@
         <v>48</v>
       </c>
       <c r="B6" s="29">
-        <v>6.25E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
@@ -1062,7 +1231,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1070,10 +1239,12 @@
         <v>49</v>
       </c>
       <c r="B7" s="29">
-        <v>6.25E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
@@ -1084,7 +1255,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1092,17 +1263,19 @@
         <v>50</v>
       </c>
       <c r="B8" s="29">
-        <v>6.25E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="H8" s="2"/>
       <c r="J8" s="2"/>
       <c r="L8" s="11"/>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1113,7 +1286,9 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
       <c r="H9" s="2"/>
@@ -1121,7 +1296,7 @@
       <c r="L9" s="11"/>
       <c r="M9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1133,10 +1308,7 @@
       <c r="H10" s="2"/>
       <c r="J10" s="2"/>
       <c r="L10" s="11"/>
-      <c r="M10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
@@ -1149,133 +1321,130 @@
       <c r="H11" s="2"/>
       <c r="J11" s="2"/>
       <c r="L11" s="11"/>
-      <c r="M11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="29" t="s">
         <v>52</v>
+      </c>
+      <c r="B12" s="29">
+        <v>0.33333333333333331</v>
       </c>
       <c r="D12" s="2"/>
       <c r="F12" s="2"/>
       <c r="H12" s="2"/>
+      <c r="I12" s="3">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="L12" s="11"/>
       <c r="M12" s="2">
         <f>SUM(C12:L12)</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>52</v>
+      <c r="A13" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="29">
+        <v>0.33333333333333331</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
       <c r="F13" s="2"/>
       <c r="H13" s="2"/>
+      <c r="I13" s="3">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="L13" s="11"/>
       <c r="M13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="M13:M17" si="1">SUM(C13:L13)</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>52</v>
+      <c r="A14" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="29">
+        <v>0.33333333333333331</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="20"/>
       <c r="H14" s="2"/>
+      <c r="I14" s="3">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="L14" s="11"/>
       <c r="M14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>52</v>
+      <c r="A15" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="29">
+        <v>0.33333333333333331</v>
       </c>
       <c r="D15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
       <c r="H15" s="2"/>
+      <c r="I15" s="3">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="L15" s="11"/>
       <c r="M15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3"/>
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="29">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="3"/>
       <c r="L16" s="11"/>
       <c r="M16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="29">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C17" s="3"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="29"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="3"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="3"/>
       <c r="L17" s="11"/>
-      <c r="M17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="29"/>
+      <c r="A18" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="29">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="3"/>
       <c r="H18" s="2"/>
@@ -1285,16 +1454,21 @@
       <c r="L18" s="11"/>
       <c r="M18" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="29">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="3">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
@@ -1302,17 +1476,22 @@
       <c r="K19" s="3"/>
       <c r="L19" s="11"/>
       <c r="M19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
-      <c r="B20" s="29"/>
+        <f t="shared" ref="M19:M20" si="2">SUM(C19:L19)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="29">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="3">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
@@ -1320,270 +1499,996 @@
       <c r="K20" s="3"/>
       <c r="L20" s="11"/>
       <c r="M20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
-      <c r="B21" s="29"/>
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="29">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="3">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
       <c r="J21" s="2"/>
       <c r="K21" s="3"/>
       <c r="L21" s="11"/>
       <c r="M21" s="2">
-        <f t="shared" ref="M21" si="1">SUM(C21:L21)</f>
-        <v>0</v>
+        <f t="shared" ref="M21:M36" si="3">SUM(C21:L21)</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="11"/>
+      <c r="A22" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="29">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="3">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="3"/>
       <c r="J22" s="2"/>
       <c r="K22" s="3"/>
       <c r="L22" s="11"/>
       <c r="M22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="29">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="A23" s="33"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="3"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="I23" s="3"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="K23" s="3"/>
       <c r="L23" s="11"/>
-      <c r="M23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B24" s="29">
-        <v>0.75</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="G24" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H24" s="2"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="J24" s="2"/>
       <c r="K24" s="3"/>
       <c r="L24" s="11"/>
       <c r="M24" s="2">
-        <f>SUM(C24:L24)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B25" s="29">
-        <v>0.41666666666666669</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="G25" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H25" s="2"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="J25" s="2"/>
       <c r="K25" s="3"/>
       <c r="L25" s="11"/>
       <c r="M25" s="2">
-        <f>SUM(C25:L25)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B26" s="29">
-        <v>0.41666666666666669</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="D26" s="2"/>
+      <c r="G26" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H26" s="2"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="J26" s="2"/>
       <c r="K26" s="3"/>
       <c r="L26" s="11"/>
       <c r="M26" s="2">
-        <f>SUM(C26:L26)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2"/>
+      <c r="G27" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="2">
+        <f t="shared" si="3"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="2"/>
+      <c r="G28" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="2">
+        <f t="shared" si="3"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="33"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="2">
+        <f t="shared" si="3"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="2">
+        <f t="shared" si="3"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="2">
+        <f t="shared" si="3"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="2">
+        <f t="shared" si="3"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="2">
+        <f t="shared" si="3"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="33"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="29">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="2">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="29">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="2">
+        <f t="shared" ref="M37:M67" si="4">SUM(C37:L37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="29">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="29">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="29">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="33"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="33"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="33"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="33"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="2">
+        <f>SUM(C45:L45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C46" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="2">
+        <f>SUM(C46:L46)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="2">
+        <f>SUM(C47:L47)</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="2">
+        <f>SUM(C48:L48)</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M49" s="2">
+        <f>SUM(C49:K49)</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="29">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="2">
-        <f>SUM(B2:B28)</f>
-        <v>2.083333333333333</v>
-      </c>
-      <c r="C29" s="2">
-        <f t="shared" ref="C29:L29" si="2">SUM(C2:C28)</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <f>SUM(I2:I28)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="2">
-        <f>SUM(J2:J28)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L30" s="2">
-        <f>SUM(C29:L29)</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="2">
-        <f>SUM(M2:M28)</f>
-        <v>0</v>
-      </c>
+      <c r="B50" s="29">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="29">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="M50" s="2">
+        <f>SUM(C50:L50)</f>
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="34"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <f>SUM(B2:B51)</f>
+        <v>11.124999999999998</v>
+      </c>
+      <c r="C52" s="2">
+        <f>SUM(C2:C51)</f>
+        <v>1.125</v>
+      </c>
+      <c r="D52" s="2">
+        <f>SUM(D2:D51)</f>
+        <v>0.14583333333333331</v>
+      </c>
+      <c r="E52" s="2">
+        <f>SUM(E2:E51)</f>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F52" s="2">
+        <f>SUM(F2:F51)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G52" s="2">
+        <f>SUM(G2:G51)</f>
+        <v>0.87499999999999978</v>
+      </c>
+      <c r="H52" s="2">
+        <f>SUM(H2:H51)</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="I52" s="2">
+        <f>SUM(I2:I51)</f>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="J52" s="2">
+        <f>SUM(J2:J51)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K52" s="2">
+        <f>SUM(K2:K51)</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L52" s="2">
+        <f>SUM(L2:L51)</f>
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L53" s="2">
+        <f>SUM(C52:L52)</f>
+        <v>6.6041666666666661</v>
+      </c>
+      <c r="M53" s="2">
+        <f>SUM(M2:M51)</f>
+        <v>6.6041666666666696</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="33"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="33"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="33"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="33"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="33"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="33"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="33"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="33"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="2"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="33"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="33"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="2"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="33"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="33"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="2"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="33"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="2"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="33"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:C28 E3:E28 I3:I28 K3:K28">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="greaterThan">
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="C54:C67 C3:C51 E54:E67 I54:I67 K54:K67 K3:K51 G54:G67 E29:E51 E3:E18 E23 F19:F20 G3:G22 G24:G51 I18:I51 I3:I16">
+    <cfRule type="cellIs" dxfId="26" priority="17" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:L2 C4:L11 C27 E27:L27 C28:L28">
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="C2:L2 C4:L11 C50 E50:K50 C51:L51 C54:L67 C24:D28 C19:D22 F19:L20 G21:L22 C23:F23 H23:L23 G24:L28 C18:L18 I12 C29:L48 C49:K49">
+    <cfRule type="cellIs" dxfId="25" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:L2 H24:I26">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="greaterThan">
+  <conditionalFormatting sqref="C2:L2 H47:I49">
+    <cfRule type="cellIs" dxfId="24" priority="19" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:L26 C27 E27:L27 C28:L28">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="C50 E50:K50 C51:L51 C54:L67 C24:D28 C19:D22 F19:L20 G21:L22 C23:F23 H23:L23 G24:L28 C13:H18 J13:L18 I18 C2:L12 C29:L48 C49:K49">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:L26">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
+  <conditionalFormatting sqref="F47:F50 H50">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47:D49 J47:J50">
+    <cfRule type="cellIs" dxfId="19" priority="14" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30:H34">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I14">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24:F27 H27 L27">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
+  <conditionalFormatting sqref="I13:I14">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="greaterThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G28 D24:D26 J24:J27">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="I15:I16">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:I16">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1596,8 +2501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/Planification_TPI.xlsx
+++ b/Documentation/Planification_TPI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\TipAlgoTri\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lelouch\Documents\TIPalgoTri\TipAlgoTri\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD65730-A30E-412E-9143-8ACCAE20E111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF33812-1087-4068-81C1-0BA24C9C5642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,39 +174,9 @@
     <t>Immersion (Création git, vérifications du poste, temps pour adapt.)</t>
   </si>
   <si>
-    <t>Faire le visuel du trie par insertion</t>
-  </si>
-  <si>
-    <t>Faire le visuel du trie à bulle</t>
-  </si>
-  <si>
-    <t>Faire le visuel du trieselection</t>
-  </si>
-  <si>
-    <t>Faire le visuel du trie à peigne</t>
-  </si>
-  <si>
-    <t>Faire le visuel du trie Shell</t>
-  </si>
-  <si>
     <t>Faire le visuel du form principal</t>
   </si>
   <si>
-    <t>Reglage de la vitesse d'éxécution du trie a bulle</t>
-  </si>
-  <si>
-    <t>Reglage de la vitesse d'éxécution du trie a peigne</t>
-  </si>
-  <si>
-    <t>Reglage de la vitesse d'éxécution du trie a séléction</t>
-  </si>
-  <si>
-    <t>Reglage de la vitesse d'éxécution du trie a insertion</t>
-  </si>
-  <si>
-    <t>Reglage de la vitesse d'éxécution du trie a shell</t>
-  </si>
-  <si>
     <t>Représenter de manière graphique /couleur différente. Bulle</t>
   </si>
   <si>
@@ -237,21 +207,6 @@
     <t>La hauteur représente son poids pour le tri à insertion</t>
   </si>
   <si>
-    <t>On peu mettre stop durant le tri à bulle</t>
-  </si>
-  <si>
-    <t>On peu mettre stop durant le tri à shell</t>
-  </si>
-  <si>
-    <t>On peu mettre stop durant le tri à peigne</t>
-  </si>
-  <si>
-    <t>On peu mettre stop durant le tri à selection</t>
-  </si>
-  <si>
-    <t>On peu mettre stop durant le tri à insertion</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ligne de code C# associée ou pseudo-code selon le choix en direct pour le tri à bulle.</t>
   </si>
   <si>
@@ -265,6 +220,51 @@
   </si>
   <si>
     <t xml:space="preserve"> ligne de code C# associée ou pseudo-code selon le choix en direct pour le tri à selection.</t>
+  </si>
+  <si>
+    <t>On peut mettre stop durant le tri à bulle</t>
+  </si>
+  <si>
+    <t>On peut mettre stop durant le tri à shell</t>
+  </si>
+  <si>
+    <t>On peut mettre stop durant le tri à peigne</t>
+  </si>
+  <si>
+    <t>On peut mettre stop durant le tri à selection</t>
+  </si>
+  <si>
+    <t>On peut mettre stop durant le tri à insertion</t>
+  </si>
+  <si>
+    <t>Réglage de la vitesse d'éxécution du tri à bulle</t>
+  </si>
+  <si>
+    <t>Réglage de la vitesse d'éxécution du tri à peigne</t>
+  </si>
+  <si>
+    <t>Réglage de la vitesse d'éxécution du tri à insertion</t>
+  </si>
+  <si>
+    <t>Réglage de la vitesse d'éxécution du tri à séléction</t>
+  </si>
+  <si>
+    <t>Réglage de la vitesse d'éxécution du tri Shell</t>
+  </si>
+  <si>
+    <t>Faire le visuel du tri Shell</t>
+  </si>
+  <si>
+    <t>Faire le visuel du tri à peigne</t>
+  </si>
+  <si>
+    <t>Faire le visuel du tri sélection</t>
+  </si>
+  <si>
+    <t>Faire le visuel du tri à bulle</t>
+  </si>
+  <si>
+    <t>Faire le visuel du tri par insertion</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,7 +1130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6"/>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="B4" s="29">
         <v>4.1666666666666664E-2</v>
@@ -1182,13 +1182,13 @@
       <c r="K4" s="3"/>
       <c r="L4" s="11"/>
       <c r="M4" s="2">
-        <f t="shared" ref="M4:M28" si="0">SUM(C4:L4)</f>
+        <f t="shared" ref="M4:M18" si="0">SUM(C4:L4)</f>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B5" s="29">
         <v>4.1666666666666664E-2</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B6" s="29">
         <v>4.1666666666666664E-2</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B7" s="29">
         <v>4.1666666666666664E-2</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B8" s="29">
         <v>4.1666666666666664E-2</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B9" s="29">
         <v>4.1666666666666664E-2</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B12" s="29">
         <v>0.33333333333333331</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B13" s="29">
         <v>0.33333333333333331</v>
@@ -1359,13 +1359,13 @@
       <c r="J13" s="2"/>
       <c r="L13" s="11"/>
       <c r="M13" s="2">
-        <f t="shared" ref="M13:M17" si="1">SUM(C13:L13)</f>
+        <f t="shared" ref="M13:M16" si="1">SUM(C13:L13)</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B14" s="29">
         <v>0.33333333333333331</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B15" s="29">
         <v>0.33333333333333331</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B16" s="29">
         <v>0.33333333333333331</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B18" s="29">
         <v>0.33333333333333331</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B19" s="29">
         <v>0.33333333333333331</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B20" s="29">
         <v>0.33333333333333331</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B21" s="29">
         <v>0.33333333333333331</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B22" s="29">
         <v>0.33333333333333331</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B24" s="29">
         <v>8.3333333333333329E-2</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B25" s="29">
         <v>8.3333333333333329E-2</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B26" s="29">
         <v>8.3333333333333329E-2</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B27" s="29">
         <v>8.3333333333333329E-2</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B28" s="29">
         <v>8.3333333333333329E-2</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B30" s="29">
         <v>8.3333333333333329E-2</v>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B31" s="29">
         <v>8.3333333333333329E-2</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B32" s="29">
         <v>8.3333333333333329E-2</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B33" s="29">
         <v>8.3333333333333329E-2</v>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B34" s="29">
         <v>8.3333333333333329E-2</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B36" s="29">
         <v>1</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B37" s="29">
         <v>1</v>
@@ -1863,13 +1863,13 @@
       <c r="K37" s="3"/>
       <c r="L37" s="11"/>
       <c r="M37" s="2">
-        <f t="shared" ref="M37:M67" si="4">SUM(C37:L37)</f>
+        <f t="shared" ref="M37:M40" si="4">SUM(C37:L37)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B38" s="29">
         <v>1</v>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B39" s="29">
         <v>1</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B40" s="29">
         <v>1</v>
@@ -2148,47 +2148,47 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
-        <f>SUM(B2:B51)</f>
+        <f t="shared" ref="B52:L52" si="5">SUM(B2:B51)</f>
         <v>11.124999999999998</v>
       </c>
       <c r="C52" s="2">
-        <f>SUM(C2:C51)</f>
+        <f t="shared" si="5"/>
         <v>1.125</v>
       </c>
       <c r="D52" s="2">
-        <f>SUM(D2:D51)</f>
+        <f t="shared" si="5"/>
         <v>0.14583333333333331</v>
       </c>
       <c r="E52" s="2">
-        <f>SUM(E2:E51)</f>
+        <f t="shared" si="5"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="F52" s="2">
-        <f>SUM(F2:F51)</f>
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G52" s="2">
-        <f>SUM(G2:G51)</f>
+        <f t="shared" si="5"/>
         <v>0.87499999999999978</v>
       </c>
       <c r="H52" s="2">
-        <f>SUM(H2:H51)</f>
+        <f t="shared" si="5"/>
         <v>0.20833333333333331</v>
       </c>
       <c r="I52" s="2">
-        <f>SUM(I2:I51)</f>
+        <f t="shared" si="5"/>
         <v>1.6666666666666665</v>
       </c>
       <c r="J52" s="2">
-        <f>SUM(J2:J51)</f>
+        <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K52" s="2">
-        <f>SUM(K2:K51)</f>
+        <f t="shared" si="5"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="L52" s="2">
-        <f>SUM(L2:L51)</f>
+        <f t="shared" si="5"/>
         <v>0.20833333333333334</v>
       </c>
     </row>
